--- a/new kartochki/АЛЬПАКА.xlsx
+++ b/new kartochki/АЛЬПАКА.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH39"/>
+  <dimension ref="A1:AH40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -620,7 +620,7 @@
         <v>3.25</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>832</v>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
@@ -668,7 +668,7 @@
         <v>3.61</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>858</v>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
@@ -716,7 +716,7 @@
         <v>3.61</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>794</v>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
@@ -764,7 +764,7 @@
         <v>3.7</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>959</v>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
@@ -812,7 +812,7 @@
         <v>3.7</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>946</v>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
@@ -860,7 +860,7 @@
         <v>3.7</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>816</v>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
@@ -908,7 +908,7 @@
         <v>3.7</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>715</v>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
@@ -956,7 +956,7 @@
         <v>4.55</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>854</v>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
@@ -1004,7 +1004,7 @@
         <v>6.67</v>
       </c>
       <c r="D10" t="n">
-        <v>815</v>
+        <v>766</v>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
@@ -1052,7 +1052,7 @@
         <v>6.67</v>
       </c>
       <c r="D11" t="n">
-        <v>756</v>
+        <v>535</v>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
@@ -1100,7 +1100,7 @@
         <v>167.57</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>692</v>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
@@ -1148,7 +1148,7 @@
         <v>4.34</v>
       </c>
       <c r="D13" t="n">
-        <v>964</v>
+        <v>0</v>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
@@ -1196,7 +1196,7 @@
         <v>4.44</v>
       </c>
       <c r="D14" t="n">
-        <v>506</v>
+        <v>679</v>
       </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
@@ -1292,7 +1292,7 @@
         <v>4.5</v>
       </c>
       <c r="D16" t="n">
-        <v>924</v>
+        <v>800</v>
       </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
@@ -1340,7 +1340,7 @@
         <v>19.85</v>
       </c>
       <c r="D17" t="n">
-        <v>506</v>
+        <v>0</v>
       </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
@@ -1376,19 +1376,19 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>RIO Веселое колечко. Лакомство-игрушка для волнистых попугаев и экзотов</t>
+          <t>RIO Веселое колечко для средних попугаев. Лакомство-игрушка для средних попугаев</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>4260559181605</t>
+          <t>4260559181612</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>8.300000000000001</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="D18" t="n">
-        <v>566</v>
+        <v>959</v>
       </c>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
@@ -1424,19 +1424,19 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>RIO Веселое колечко для средних попугаев. Лакомство-игрушка для средних попугаев</t>
+          <t>RIO Корм для ручного вскармливания птенцов, 400 г</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>4260559181612</t>
+          <t>4602533000128</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>9.279999999999999</v>
+        <v>25.28</v>
       </c>
       <c r="D19" t="n">
-        <v>887</v>
+        <v>0</v>
       </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
@@ -1472,19 +1472,19 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>RIO Корм для ручного вскармливания птенцов, 400 г</t>
+          <t>RIO Веселое колечко. Лакомство-игрушка для волнистых попугаев и экзотов</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>4602533000128</t>
+          <t>4260559181605</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>25.28</v>
+        <v>7.99</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>887</v>
       </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
@@ -1628,7 +1628,7 @@
         <v>10.4</v>
       </c>
       <c r="D23" t="n">
-        <v>830</v>
+        <v>890</v>
       </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
@@ -1673,10 +1673,10 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="D24" t="n">
-        <v>765</v>
+        <v>941</v>
       </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
@@ -1820,7 +1820,7 @@
         <v>5.05</v>
       </c>
       <c r="D27" t="n">
-        <v>538</v>
+        <v>606</v>
       </c>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
@@ -2060,7 +2060,7 @@
         <v>155.71</v>
       </c>
       <c r="D32" t="n">
-        <v>906</v>
+        <v>641</v>
       </c>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
@@ -2156,7 +2156,7 @@
         <v>6.34</v>
       </c>
       <c r="D34" t="n">
-        <v>886</v>
+        <v>0</v>
       </c>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr"/>
@@ -2204,7 +2204,7 @@
         <v>11.54</v>
       </c>
       <c r="D35" t="n">
-        <v>996</v>
+        <v>0</v>
       </c>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
@@ -2240,19 +2240,19 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>K203 Cliny Подгузники д/собак и кошек 5-10кг размер М (9шт.)</t>
+          <t>K202 Cliny Подгузники д/собак и кошек 3-6кг размер S (10шт.)</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>4607092073293</t>
+          <t>4607092073286</t>
         </is>
       </c>
       <c r="C36" t="n">
         <v>23.11</v>
       </c>
       <c r="D36" t="n">
-        <v>649</v>
+        <v>868</v>
       </c>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr"/>
@@ -2288,19 +2288,19 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>K204 Cliny Подгузники д/собак и кошек 8-16кг размер  L (8шт.)</t>
+          <t>K203 Cliny Подгузники д/собак и кошек 5-10кг размер М (9шт.)</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>4607092073309</t>
+          <t>4607092073293</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>23.09</v>
+        <v>23.11</v>
       </c>
       <c r="D37" t="n">
-        <v>915</v>
+        <v>523</v>
       </c>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr"/>
@@ -2336,19 +2336,19 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>K205 Cliny Подгузники д/собак и кошек 15-30кг размер  XL (7шт.)</t>
+          <t>K204 Cliny Подгузники д/собак и кошек 8-16кг размер  L (8шт.)</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>4607092073316</t>
+          <t>4607092073309</t>
         </is>
       </c>
       <c r="C38" t="n">
         <v>23.09</v>
       </c>
       <c r="D38" t="n">
-        <v>630</v>
+        <v>559</v>
       </c>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr"/>
@@ -2384,19 +2384,19 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>K212 Cliny Подгузники д/собак 25-40кг размер  XXL (6шт.)</t>
+          <t>K205 Cliny Подгузники д/собак и кошек 15-30кг размер  XL (7шт.)</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>4607092076560</t>
+          <t>4607092073316</t>
         </is>
       </c>
       <c r="C39" t="n">
         <v>23.09</v>
       </c>
       <c r="D39" t="n">
-        <v>944</v>
+        <v>899</v>
       </c>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
@@ -2429,6 +2429,54 @@
       <c r="AG39" t="inlineStr"/>
       <c r="AH39" t="inlineStr"/>
     </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>K212 Cliny Подгузники д/собак 25-40кг размер  XXL (6шт.)</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>4607092076560</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>23.09</v>
+      </c>
+      <c r="D40" t="n">
+        <v>752</v>
+      </c>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr"/>
+      <c r="R40" t="inlineStr"/>
+      <c r="S40" t="inlineStr"/>
+      <c r="T40" t="inlineStr"/>
+      <c r="U40" t="inlineStr"/>
+      <c r="V40" t="inlineStr"/>
+      <c r="W40" t="inlineStr"/>
+      <c r="X40" t="inlineStr"/>
+      <c r="Y40" t="inlineStr"/>
+      <c r="Z40" t="inlineStr"/>
+      <c r="AA40" t="inlineStr"/>
+      <c r="AB40" t="inlineStr"/>
+      <c r="AC40" t="inlineStr"/>
+      <c r="AD40" t="inlineStr"/>
+      <c r="AE40" t="inlineStr"/>
+      <c r="AF40" t="inlineStr"/>
+      <c r="AG40" t="inlineStr"/>
+      <c r="AH40" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/new kartochki/АЛЬПАКА.xlsx
+++ b/new kartochki/АЛЬПАКА.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
   <si>
     <t>Наименование</t>
   </si>
@@ -118,6 +118,9 @@
     <t>Остаток</t>
   </si>
   <si>
+    <t>NT 3,0кг Medium Adult Корм сухой для собак средних пород из свежей курицы с цикорием и спирулиной</t>
+  </si>
+  <si>
     <t>Papa&amp;Mama Pet Песок для купания грызунов 1.5 кг.</t>
   </si>
   <si>
@@ -187,6 +190,9 @@
     <t>КОТУ наполнитель впитывающий 7,5 кг, 9,2 л.</t>
   </si>
   <si>
+    <t>K201 Cliny Подгузники д/собак и кошек 2-4кг размер XS (11шт.)</t>
+  </si>
+  <si>
     <t>K202 Cliny Подгузники д/собак и кошек 3-6кг размер S (10шт.)</t>
   </si>
   <si>
@@ -202,6 +208,9 @@
     <t>K212 Cliny Подгузники д/собак 25-40кг размер  XXL (6шт.)</t>
   </si>
   <si>
+    <t>8015699006754</t>
+  </si>
+  <si>
     <t>4815070004324</t>
   </si>
   <si>
@@ -269,6 +278,9 @@
   </si>
   <si>
     <t>4815070003501</t>
+  </si>
+  <si>
+    <t>4607092073279</t>
   </si>
   <si>
     <t>4607092073286</t>
@@ -641,7 +653,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH29"/>
+  <dimension ref="A1:AH31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -756,13 +768,13 @@
         <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C2">
-        <v>4.34</v>
+        <v>53.83</v>
       </c>
       <c r="D2">
-        <v>519</v>
+        <v>935</v>
       </c>
     </row>
     <row r="3" spans="1:34">
@@ -770,13 +782,13 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C3">
-        <v>4.44</v>
+        <v>4.34</v>
       </c>
       <c r="D3">
-        <v>554</v>
+        <v>982</v>
       </c>
     </row>
     <row r="4" spans="1:34">
@@ -784,13 +796,13 @@
         <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C4">
-        <v>5.4</v>
+        <v>4.44</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>959</v>
       </c>
     </row>
     <row r="5" spans="1:34">
@@ -798,13 +810,13 @@
         <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C5">
-        <v>4.5</v>
+        <v>5.4</v>
       </c>
       <c r="D5">
-        <v>695</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:34">
@@ -812,13 +824,13 @@
         <v>38</v>
       </c>
       <c r="B6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C6">
-        <v>19.85</v>
+        <v>4.5</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>917</v>
       </c>
     </row>
     <row r="7" spans="1:34">
@@ -826,10 +838,10 @@
         <v>39</v>
       </c>
       <c r="B7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C7">
-        <v>25.28</v>
+        <v>19.85</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -840,13 +852,13 @@
         <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C8">
-        <v>7.97</v>
+        <v>25.28</v>
       </c>
       <c r="D8">
-        <v>915</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:34">
@@ -854,13 +866,13 @@
         <v>41</v>
       </c>
       <c r="B9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C9">
-        <v>9.109999999999999</v>
+        <v>7.88</v>
       </c>
       <c r="D9">
-        <v>667</v>
+        <v>803</v>
       </c>
     </row>
     <row r="10" spans="1:34">
@@ -868,13 +880,13 @@
         <v>42</v>
       </c>
       <c r="B10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C10">
-        <v>147.86</v>
+        <v>9.02</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>562</v>
       </c>
     </row>
     <row r="11" spans="1:34">
@@ -882,10 +894,10 @@
         <v>43</v>
       </c>
       <c r="B11" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C11">
-        <v>6.86</v>
+        <v>147.86</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -896,13 +908,13 @@
         <v>44</v>
       </c>
       <c r="B12" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C12">
-        <v>10.4</v>
+        <v>6.86</v>
       </c>
       <c r="D12">
-        <v>964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:34">
@@ -910,10 +922,10 @@
         <v>45</v>
       </c>
       <c r="B13" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C13">
-        <v>6</v>
+        <v>10.4</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -924,10 +936,10 @@
         <v>46</v>
       </c>
       <c r="B14" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C14">
-        <v>8.84</v>
+        <v>6</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -938,10 +950,10 @@
         <v>47</v>
       </c>
       <c r="B15" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C15">
-        <v>6.5</v>
+        <v>8.84</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -952,13 +964,13 @@
         <v>48</v>
       </c>
       <c r="B16" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C16">
-        <v>5.05</v>
+        <v>6.5</v>
       </c>
       <c r="D16">
-        <v>644</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -966,13 +978,13 @@
         <v>49</v>
       </c>
       <c r="B17" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C17">
-        <v>7.75</v>
+        <v>5.05</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>949</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -980,10 +992,10 @@
         <v>50</v>
       </c>
       <c r="B18" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C18">
-        <v>6.62</v>
+        <v>7.75</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -994,10 +1006,10 @@
         <v>51</v>
       </c>
       <c r="B19" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C19">
-        <v>10</v>
+        <v>6.62</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1008,10 +1020,10 @@
         <v>52</v>
       </c>
       <c r="B20" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C20">
-        <v>11.98</v>
+        <v>10</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -1022,13 +1034,13 @@
         <v>53</v>
       </c>
       <c r="B21" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C21">
-        <v>151.56</v>
+        <v>11.98</v>
       </c>
       <c r="D21">
-        <v>564</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1036,13 +1048,13 @@
         <v>54</v>
       </c>
       <c r="B22" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C22">
-        <v>12.85</v>
+        <v>151.56</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>850</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1050,13 +1062,13 @@
         <v>55</v>
       </c>
       <c r="B23" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C23">
-        <v>6.34</v>
+        <v>12.85</v>
       </c>
       <c r="D23">
-        <v>549</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1064,13 +1076,13 @@
         <v>56</v>
       </c>
       <c r="B24" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C24">
-        <v>11.54</v>
+        <v>6.34</v>
       </c>
       <c r="D24">
-        <v>695</v>
+        <v>874</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1078,13 +1090,13 @@
         <v>57</v>
       </c>
       <c r="B25" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C25">
-        <v>23.11</v>
+        <v>11.54</v>
       </c>
       <c r="D25">
-        <v>689</v>
+        <v>957</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1092,13 +1104,13 @@
         <v>58</v>
       </c>
       <c r="B26" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C26">
         <v>23.11</v>
       </c>
       <c r="D26">
-        <v>835</v>
+        <v>640</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1106,13 +1118,13 @@
         <v>59</v>
       </c>
       <c r="B27" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C27">
-        <v>23.09</v>
+        <v>23.11</v>
       </c>
       <c r="D27">
-        <v>696</v>
+        <v>600</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1120,13 +1132,13 @@
         <v>60</v>
       </c>
       <c r="B28" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C28">
-        <v>23.09</v>
+        <v>23.11</v>
       </c>
       <c r="D28">
-        <v>672</v>
+        <v>613</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1134,13 +1146,41 @@
         <v>61</v>
       </c>
       <c r="B29" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C29">
         <v>23.09</v>
       </c>
       <c r="D29">
-        <v>988</v>
+        <v>676</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30" t="s">
+        <v>92</v>
+      </c>
+      <c r="C30">
+        <v>23.09</v>
+      </c>
+      <c r="D30">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" t="s">
+        <v>93</v>
+      </c>
+      <c r="C31">
+        <v>23.09</v>
+      </c>
+      <c r="D31">
+        <v>981</v>
       </c>
     </row>
   </sheetData>

--- a/new kartochki/АЛЬПАКА.xlsx
+++ b/new kartochki/АЛЬПАКА.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
   <si>
     <t>Наименование</t>
   </si>
@@ -118,9 +118,6 @@
     <t>Остаток</t>
   </si>
   <si>
-    <t>NT 3,0кг Medium Adult Корм сухой для собак средних пород из свежей курицы с цикорием и спирулиной</t>
-  </si>
-  <si>
     <t>Papa&amp;Mama Pet Песок для купания грызунов 1.5 кг.</t>
   </si>
   <si>
@@ -206,9 +203,6 @@
   </si>
   <si>
     <t>K212 Cliny Подгузники д/собак 25-40кг размер  XXL (6шт.)</t>
-  </si>
-  <si>
-    <t>8015699006754</t>
   </si>
   <si>
     <t>4815070004324</t>
@@ -653,7 +647,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH31"/>
+  <dimension ref="A1:AH30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -768,13 +762,13 @@
         <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C2">
-        <v>53.83</v>
+        <v>4.34</v>
       </c>
       <c r="D2">
-        <v>935</v>
+        <v>664</v>
       </c>
     </row>
     <row r="3" spans="1:34">
@@ -782,13 +776,13 @@
         <v>35</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C3">
-        <v>4.34</v>
+        <v>4.44</v>
       </c>
       <c r="D3">
-        <v>982</v>
+        <v>898</v>
       </c>
     </row>
     <row r="4" spans="1:34">
@@ -796,13 +790,13 @@
         <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C4">
-        <v>4.44</v>
+        <v>5.4</v>
       </c>
       <c r="D4">
-        <v>959</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:34">
@@ -810,13 +804,13 @@
         <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C5">
-        <v>5.4</v>
+        <v>4.5</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>847</v>
       </c>
     </row>
     <row r="6" spans="1:34">
@@ -824,13 +818,13 @@
         <v>38</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C6">
-        <v>4.5</v>
+        <v>19.85</v>
       </c>
       <c r="D6">
-        <v>917</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:34">
@@ -838,10 +832,10 @@
         <v>39</v>
       </c>
       <c r="B7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C7">
-        <v>19.85</v>
+        <v>25.28</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -852,13 +846,13 @@
         <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C8">
-        <v>25.28</v>
+        <v>7.88</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>917</v>
       </c>
     </row>
     <row r="9" spans="1:34">
@@ -866,13 +860,13 @@
         <v>41</v>
       </c>
       <c r="B9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C9">
-        <v>7.88</v>
+        <v>9.02</v>
       </c>
       <c r="D9">
-        <v>803</v>
+        <v>912</v>
       </c>
     </row>
     <row r="10" spans="1:34">
@@ -880,13 +874,13 @@
         <v>42</v>
       </c>
       <c r="B10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C10">
-        <v>9.02</v>
+        <v>147.86</v>
       </c>
       <c r="D10">
-        <v>562</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:34">
@@ -894,10 +888,10 @@
         <v>43</v>
       </c>
       <c r="B11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C11">
-        <v>147.86</v>
+        <v>6.86</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -908,10 +902,10 @@
         <v>44</v>
       </c>
       <c r="B12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C12">
-        <v>6.86</v>
+        <v>10.4</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -922,10 +916,10 @@
         <v>45</v>
       </c>
       <c r="B13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C13">
-        <v>10.4</v>
+        <v>6</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -936,10 +930,10 @@
         <v>46</v>
       </c>
       <c r="B14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C14">
-        <v>6</v>
+        <v>8.84</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -950,10 +944,10 @@
         <v>47</v>
       </c>
       <c r="B15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C15">
-        <v>8.84</v>
+        <v>6.5</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -964,13 +958,13 @@
         <v>48</v>
       </c>
       <c r="B16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C16">
-        <v>6.5</v>
+        <v>5.05</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>718</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -978,13 +972,13 @@
         <v>49</v>
       </c>
       <c r="B17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C17">
-        <v>5.05</v>
+        <v>7.75</v>
       </c>
       <c r="D17">
-        <v>949</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -992,10 +986,10 @@
         <v>50</v>
       </c>
       <c r="B18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C18">
-        <v>7.75</v>
+        <v>6.62</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1006,10 +1000,10 @@
         <v>51</v>
       </c>
       <c r="B19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C19">
-        <v>6.62</v>
+        <v>10</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1020,10 +1014,10 @@
         <v>52</v>
       </c>
       <c r="B20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C20">
-        <v>10</v>
+        <v>11.98</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -1034,13 +1028,13 @@
         <v>53</v>
       </c>
       <c r="B21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C21">
-        <v>11.98</v>
+        <v>151.56</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>777</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1048,13 +1042,13 @@
         <v>54</v>
       </c>
       <c r="B22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C22">
-        <v>151.56</v>
+        <v>12.85</v>
       </c>
       <c r="D22">
-        <v>850</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1062,13 +1056,13 @@
         <v>55</v>
       </c>
       <c r="B23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C23">
-        <v>12.85</v>
+        <v>6.34</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>943</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1076,13 +1070,13 @@
         <v>56</v>
       </c>
       <c r="B24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C24">
-        <v>6.34</v>
+        <v>11.54</v>
       </c>
       <c r="D24">
-        <v>874</v>
+        <v>928</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1090,13 +1084,13 @@
         <v>57</v>
       </c>
       <c r="B25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C25">
-        <v>11.54</v>
+        <v>23.11</v>
       </c>
       <c r="D25">
-        <v>957</v>
+        <v>904</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1104,13 +1098,13 @@
         <v>58</v>
       </c>
       <c r="B26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C26">
         <v>23.11</v>
       </c>
       <c r="D26">
-        <v>640</v>
+        <v>995</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1118,13 +1112,13 @@
         <v>59</v>
       </c>
       <c r="B27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C27">
         <v>23.11</v>
       </c>
       <c r="D27">
-        <v>600</v>
+        <v>591</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1132,13 +1126,13 @@
         <v>60</v>
       </c>
       <c r="B28" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C28">
-        <v>23.11</v>
+        <v>23.09</v>
       </c>
       <c r="D28">
-        <v>613</v>
+        <v>665</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1146,13 +1140,13 @@
         <v>61</v>
       </c>
       <c r="B29" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C29">
         <v>23.09</v>
       </c>
       <c r="D29">
-        <v>676</v>
+        <v>982</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1160,27 +1154,13 @@
         <v>62</v>
       </c>
       <c r="B30" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C30">
         <v>23.09</v>
       </c>
       <c r="D30">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" t="s">
-        <v>63</v>
-      </c>
-      <c r="B31" t="s">
-        <v>93</v>
-      </c>
-      <c r="C31">
-        <v>23.09</v>
-      </c>
-      <c r="D31">
-        <v>981</v>
+        <v>960</v>
       </c>
     </row>
   </sheetData>

--- a/new kartochki/АЛЬПАКА.xlsx
+++ b/new kartochki/АЛЬПАКА.xlsx
@@ -768,7 +768,7 @@
         <v>4.34</v>
       </c>
       <c r="D2">
-        <v>664</v>
+        <v>709</v>
       </c>
     </row>
     <row r="3" spans="1:34">
@@ -782,7 +782,7 @@
         <v>4.44</v>
       </c>
       <c r="D3">
-        <v>898</v>
+        <v>706</v>
       </c>
     </row>
     <row r="4" spans="1:34">
@@ -810,7 +810,7 @@
         <v>4.5</v>
       </c>
       <c r="D5">
-        <v>847</v>
+        <v>940</v>
       </c>
     </row>
     <row r="6" spans="1:34">
@@ -852,7 +852,7 @@
         <v>7.88</v>
       </c>
       <c r="D8">
-        <v>917</v>
+        <v>833</v>
       </c>
     </row>
     <row r="9" spans="1:34">
@@ -866,7 +866,7 @@
         <v>9.02</v>
       </c>
       <c r="D9">
-        <v>912</v>
+        <v>623</v>
       </c>
     </row>
     <row r="10" spans="1:34">
@@ -964,7 +964,7 @@
         <v>5.05</v>
       </c>
       <c r="D16">
-        <v>718</v>
+        <v>970</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1034,7 +1034,7 @@
         <v>151.56</v>
       </c>
       <c r="D21">
-        <v>777</v>
+        <v>653</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1062,7 +1062,7 @@
         <v>6.34</v>
       </c>
       <c r="D23">
-        <v>943</v>
+        <v>738</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1076,7 +1076,7 @@
         <v>11.54</v>
       </c>
       <c r="D24">
-        <v>928</v>
+        <v>838</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1090,7 +1090,7 @@
         <v>23.11</v>
       </c>
       <c r="D25">
-        <v>904</v>
+        <v>919</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1104,7 +1104,7 @@
         <v>23.11</v>
       </c>
       <c r="D26">
-        <v>995</v>
+        <v>858</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1118,7 +1118,7 @@
         <v>23.11</v>
       </c>
       <c r="D27">
-        <v>591</v>
+        <v>716</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1132,7 +1132,7 @@
         <v>23.09</v>
       </c>
       <c r="D28">
-        <v>665</v>
+        <v>726</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1146,7 +1146,7 @@
         <v>23.09</v>
       </c>
       <c r="D29">
-        <v>982</v>
+        <v>916</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1160,7 +1160,7 @@
         <v>23.09</v>
       </c>
       <c r="D30">
-        <v>960</v>
+        <v>811</v>
       </c>
     </row>
   </sheetData>
